--- a/Planilhas_Física/Relatório3.xlsx
+++ b/Planilhas_Física/Relatório3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C489AC-4A07-4807-ADD2-F5E4C49EC457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83F92A-D667-4CE7-B9FF-E5DAE94E2F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0549E4B-CB1D-4904-B9BB-13A06550F348}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -657,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -751,27 +758,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +863,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449CF222-3848-41A0-8DE4-0CF7769A2C7F}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,52 +1286,52 @@
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="50" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="21" t="s">
@@ -1331,38 +1341,38 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="51">
         <v>0.2492</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="52">
         <v>0.2165</v>
       </c>
       <c r="D3" s="31">
         <v>0.193</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="52">
         <v>0.17580000000000001</v>
       </c>
       <c r="F3" s="31">
         <v>0.16309999999999999</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="52">
         <v>0.15329999999999999</v>
       </c>
       <c r="H3" s="31">
         <v>0.1444</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="52">
         <v>0.1363</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="53">
         <v>0.1308</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="54">
         <v>0.12509999999999999</v>
       </c>
       <c r="M3" s="22" t="s">
@@ -1373,38 +1383,38 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="55">
         <v>0.2487</v>
       </c>
       <c r="C4" s="26">
         <v>0.2175</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="56">
         <v>0.19320000000000001</v>
       </c>
       <c r="E4" s="26">
         <v>0.17519999999999999</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="56">
         <v>0.16239999999999999</v>
       </c>
       <c r="G4" s="26">
         <v>0.153</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="56">
         <v>0.14430000000000001</v>
       </c>
       <c r="I4" s="26">
         <v>0.1363</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="57">
         <v>0.13070000000000001</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="58">
         <v>0.12570000000000001</v>
       </c>
       <c r="M4" s="22" t="s">
@@ -1414,38 +1424,38 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="55">
         <v>0.24879999999999999</v>
       </c>
       <c r="C5" s="26">
         <v>0.21640000000000001</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="56">
         <v>0.1933</v>
       </c>
       <c r="E5" s="26">
         <v>0.17519999999999999</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="56">
         <v>0.16350000000000001</v>
       </c>
       <c r="G5" s="26">
         <v>0.15290000000000001</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="56">
         <v>0.14399999999999999</v>
       </c>
       <c r="I5" s="26">
         <v>0.13619999999999999</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="57">
         <v>0.13009999999999999</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="58">
         <v>0.1258</v>
       </c>
       <c r="M5" s="22" t="s">
@@ -1455,117 +1465,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="55">
         <v>0.24879999999999999</v>
       </c>
       <c r="C6" s="26">
         <v>0.21629999999999999</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="56">
         <v>0.19339999999999999</v>
       </c>
       <c r="E6" s="26">
         <v>0.1754</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="56">
         <v>0.16259999999999999</v>
       </c>
       <c r="G6" s="26">
         <v>0.15290000000000001</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="56">
         <v>0.14380000000000001</v>
       </c>
       <c r="I6" s="26">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="57">
         <v>0.1305</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="58">
         <v>0.12559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="59">
         <v>0.24890000000000001</v>
       </c>
       <c r="C7" s="28">
         <v>0.2162</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="60">
         <v>0.19309999999999999</v>
       </c>
       <c r="E7" s="28">
         <v>0.1757</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="60">
         <v>0.1628</v>
       </c>
       <c r="G7" s="28">
         <v>0.1532</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="60">
         <v>0.14380000000000001</v>
       </c>
       <c r="I7" s="28">
         <v>0.13619999999999999</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="61">
         <v>0.13070000000000001</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="62">
         <v>0.12540000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="39">
         <f>AVERAGE(B3:B7)</f>
         <v>0.24888000000000005</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="40">
         <f>AVERAGE(C3:C7)</f>
         <v>0.21657999999999999</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="40">
         <f t="shared" ref="D8:K8" si="0">AVERAGE(D3:D7)</f>
         <v>0.19319999999999998</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="40">
         <f t="shared" si="0"/>
         <v>0.17546</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="40">
         <f t="shared" si="0"/>
         <v>0.16288</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="40">
         <f t="shared" si="0"/>
         <v>0.15306000000000003</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="40">
         <f>AVERAGE(H3:H7)</f>
         <v>0.14406000000000002</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="40">
         <f t="shared" si="0"/>
         <v>0.13619999999999999</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="40">
         <f t="shared" si="0"/>
         <v>0.13056000000000001</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="41">
         <f t="shared" si="0"/>
         <v>0.12551999999999999</v>
       </c>
@@ -1574,47 +1584,47 @@
         <v>0.16864000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="42">
         <f>_xlfn.STDEV.S(B3:B7)</f>
         <v>1.9235384061671608E-4</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="43">
         <f t="shared" ref="C9:K9" si="1">_xlfn.STDEV.S(C3:C7)</f>
         <v>5.2630789467762989E-4</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="43">
         <f t="shared" si="1"/>
         <v>1.5811388300841471E-4</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="43">
         <f>_xlfn.STDEV.S(E3:E7)</f>
         <v>2.7928480087538384E-4</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="43">
         <f t="shared" si="1"/>
         <v>4.3243496620879872E-4</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="43">
         <f t="shared" si="1"/>
         <v>1.8165902124584398E-4</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="43">
         <f t="shared" si="1"/>
         <v>2.792848008753769E-4</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="43">
         <f t="shared" si="1"/>
         <v>1.2247448713915675E-4</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="43">
         <f t="shared" si="1"/>
         <v>2.7928480087538384E-4</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="44">
         <f t="shared" si="1"/>
         <v>2.7748873851023408E-4</v>
       </c>
@@ -1623,53 +1633,53 @@
         <v>2.7286872340329387E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="45">
         <f>B9/SQRT(5)</f>
         <v>8.6023252670427441E-5</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="46">
         <f>C9/SQRT(5)</f>
         <v>2.3537204591879602E-4</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="46">
         <f t="shared" ref="D10:K10" si="2">D9/SQRT(5)</f>
         <v>7.0710678118652843E-5</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="46">
         <f t="shared" si="2"/>
         <v>1.248999599679702E-4</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="46">
         <f t="shared" si="2"/>
         <v>1.9339079605813967E-4</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="46">
         <f t="shared" si="2"/>
         <v>8.1240384046357136E-5</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="46">
         <f t="shared" si="2"/>
         <v>1.2489995996796711E-4</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="46">
         <f t="shared" si="2"/>
         <v>5.4772255750515645E-5</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="46">
         <f t="shared" si="2"/>
         <v>1.248999599679702E-4</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="47">
         <f t="shared" si="2"/>
         <v>1.2409673645990941E-4</v>
       </c>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -1681,30 +1691,32 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="41" t="s">
+      <c r="P11" s="82"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
       <c r="N12" s="33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -1738,9 +1750,10 @@
         <f>AVERAGE(B19:K19)</f>
         <v>0.60230624708807079</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
         <v>1</v>
       </c>
       <c r="B14" s="24">
@@ -1783,9 +1796,10 @@
         <f t="shared" si="3"/>
         <v>0.77537969624300573</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
       <c r="B15" s="25">
@@ -1828,9 +1842,10 @@
         <f t="shared" ref="K15" si="8">0.097/K4</f>
         <v>0.77167859984089104</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
         <v>3</v>
       </c>
       <c r="B16" s="25">
@@ -1875,7 +1890,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="80">
+      <c r="A17" s="73">
         <v>4</v>
       </c>
       <c r="B17" s="25">
@@ -1920,7 +1935,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80">
+      <c r="A18" s="73">
         <v>5</v>
       </c>
       <c r="B18" s="25">
@@ -1965,46 +1980,46 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="70">
         <f>AVERAGE(B14:B18)</f>
         <v>0.38974624847732997</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="65">
         <f t="shared" ref="C19:K19" si="21">AVERAGE(C14:C18)</f>
         <v>0.44787356603013029</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="65">
         <f>AVERAGE(D14:D18)</f>
         <v>0.50207066239238174</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="65">
         <f>AVERAGE(E14:E18)</f>
         <v>0.55283367459387611</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="65">
         <f t="shared" si="21"/>
         <v>0.59553380685628587</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="65">
         <f t="shared" si="21"/>
         <v>0.63373911710508424</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="65">
         <f t="shared" si="21"/>
         <v>0.67333258045933198</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="65">
         <f>AVERAGE(I14:I18)</f>
         <v>0.71218841992665027</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="65">
         <f>AVERAGE(J14:J18)</f>
         <v>0.74295615635213752</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="66">
         <f t="shared" si="21"/>
         <v>0.77278823868750002</v>
       </c>
@@ -2017,43 +2032,43 @@
       <c r="A20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="71">
         <f>B19^2</f>
         <v>0.15190213820215265</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="67">
         <f t="shared" ref="C20:K20" si="22">C19^2</f>
         <v>0.20059073114854548</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="67">
         <f t="shared" si="22"/>
         <v>0.25207495003512498</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="67">
         <f t="shared" si="22"/>
         <v>0.30562507176496773</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="67">
         <f t="shared" si="22"/>
         <v>0.35466051510874003</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="67">
         <f t="shared" si="22"/>
         <v>0.40162526854913166</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="67">
         <f t="shared" si="22"/>
         <v>0.45337676390802278</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="67">
         <f t="shared" si="22"/>
         <v>0.50721234547761873</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="67">
         <f t="shared" si="22"/>
         <v>0.55198385026154184</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="68">
         <f t="shared" si="22"/>
         <v>0.59720166185372847</v>
       </c>
@@ -2073,18 +2088,18 @@
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
@@ -2396,18 +2411,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
